--- a/Inputs/Allianz_GlobalPass/info.xlsx
+++ b/Inputs/Allianz_GlobalPass/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">frequencies</t>
   </si>
   <si>
-    <t xml:space="preserve">addons--</t>
+    <t xml:space="preserve">addons</t>
   </si>
   <si>
     <t xml:space="preserve">ageCalculationMethod</t>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">frequencyFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">rateTable</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allianz_Global_Pass</t>
   </si>
   <si>
@@ -64,7 +67,7 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Annually/</t>
+    <t xml:space="preserve">Annually/semiAnnual/quarter/month</t>
   </si>
   <si>
     <r>
@@ -97,6 +100,9 @@
   <si>
     <t xml:space="preserve">rates</t>
   </si>
+  <si>
+    <t xml:space="preserve">deductible/paymentFrequency/Dental</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +112,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,11 +133,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,15 +204,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,19 +289,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="66.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -339,37 +337,43 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Allianz_GlobalPass/info.xlsx
+++ b/Inputs/Allianz_GlobalPass/info.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Allianz_Global_Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Latin/Argentina/Bolivia/Guatemala &amp; Martinique/Honduras/Belize, Nicaragua &amp; El Salvador/Panama &amp; Puerto Rico/Costa Rica/Mexico</t>
+    <t xml:space="preserve">Latin/</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-01</t>
@@ -292,10 +292,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.43"/>

--- a/Inputs/Allianz_GlobalPass/info.xlsx
+++ b/Inputs/Allianz_GlobalPass/info.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Allianz_Global_Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Latin/</t>
+    <t xml:space="preserve">Latin/Argentina/Bolivia/Guatemala &amp; Martinique/Honduras/Belize, Nicaragua &amp; El Salvador/Panama &amp; Puerto Rico/Costa Rica/Mexico</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-01</t>

--- a/Inputs/Allianz_GlobalPass/info.xlsx
+++ b/Inputs/Allianz_GlobalPass/info.xlsx
@@ -295,7 +295,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.43"/>

--- a/Inputs/Allianz_GlobalPass/info.xlsx
+++ b/Inputs/Allianz_GlobalPass/info.xlsx
@@ -88,7 +88,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Dental Waiting Period</t>
+      <t xml:space="preserve">Dental Waiting Period/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maternity Waiting Period</t>
     </r>
   </si>
   <si>
@@ -112,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,6 +154,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -295,7 +312,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.43"/>
@@ -341,7 +358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
